--- a/2020_01_32769/test_200607/test.xlsx
+++ b/2020_01_32769/test_200607/test.xlsx
@@ -879,7 +879,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +928,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -951,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +980,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,15 +1269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M270" sqref="M270"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I289" sqref="I289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="26.58203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="7"/>
     <col min="12" max="12" width="10" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1303,6 +1318,9 @@
       <c r="I2" s="1">
         <v>0.68794326241134696</v>
       </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>423</v>
       </c>
@@ -1333,6 +1351,9 @@
       <c r="I3" s="1">
         <v>0.23872679045092801</v>
       </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>377</v>
       </c>
@@ -1363,6 +1384,9 @@
       <c r="I4" s="1">
         <v>0.240208877284595</v>
       </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>383</v>
       </c>
@@ -1393,6 +1417,9 @@
       <c r="I5" s="1">
         <v>0.39353478566409</v>
       </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>1423</v>
       </c>
@@ -1423,6 +1450,9 @@
       <c r="I6" s="1">
         <v>0.41008174386920898</v>
       </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>1468</v>
       </c>
@@ -1453,6 +1483,9 @@
       <c r="I7" s="1">
         <v>0.23047619047619</v>
       </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>525</v>
       </c>
@@ -1483,6 +1516,9 @@
       <c r="I8" s="1">
         <v>0.20917431192660499</v>
       </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>545</v>
       </c>
@@ -1513,6 +1549,9 @@
       <c r="I9" s="1">
         <v>0.42084942084942001</v>
       </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>1554</v>
       </c>
@@ -1543,6 +1582,9 @@
       <c r="I10" s="1">
         <v>0.39864864864864802</v>
       </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1628</v>
       </c>
@@ -1573,6 +1615,9 @@
       <c r="I11" s="1">
         <v>0.24729891956782701</v>
       </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>833</v>
       </c>
@@ -1603,6 +1648,9 @@
       <c r="I12" s="1">
         <v>0.250879249706916</v>
       </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>853</v>
       </c>
@@ -1633,6 +1681,9 @@
       <c r="I13" s="1">
         <v>8.5703450891164198E-2</v>
       </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>2637</v>
       </c>
@@ -1663,6 +1714,9 @@
       <c r="I14" s="1">
         <v>6.8503350707371499E-2</v>
       </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>2686</v>
       </c>
@@ -1693,6 +1747,9 @@
       <c r="I15" s="1">
         <v>7.1661237785016305E-2</v>
       </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>921</v>
       </c>
@@ -1723,6 +1780,9 @@
       <c r="I16" s="1">
         <v>6.85224839400429E-2</v>
       </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>934</v>
       </c>
@@ -1753,6 +1813,9 @@
       <c r="I17" s="1">
         <v>4.3795620437956102E-2</v>
       </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>411</v>
       </c>
@@ -1783,6 +1846,9 @@
       <c r="I18" s="1">
         <v>5.3527980535279698E-2</v>
       </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>411</v>
       </c>
@@ -1813,6 +1879,9 @@
       <c r="I19" s="1">
         <v>0.10621761658031</v>
       </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>1158</v>
       </c>
@@ -1843,6 +1912,9 @@
       <c r="I20" s="1">
         <v>8.3963056255247498E-2</v>
       </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>1191</v>
       </c>
@@ -1873,6 +1945,9 @@
       <c r="I21" s="1">
         <v>0.12391304347826</v>
       </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>460</v>
       </c>
@@ -1903,6 +1978,9 @@
       <c r="I22" s="1">
         <v>0.145652173913043</v>
       </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>460</v>
       </c>
@@ -1933,6 +2011,9 @@
       <c r="I23" s="1">
         <v>0.141823208912742</v>
       </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>12297</v>
       </c>
@@ -1963,6 +2044,9 @@
       <c r="I24" s="1">
         <v>0.125563731307856</v>
       </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>12639</v>
       </c>
@@ -1993,6 +2077,9 @@
       <c r="I25" s="1">
         <v>0.79095163806552204</v>
       </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
       <c r="K25">
         <v>641</v>
       </c>
@@ -2023,6 +2110,9 @@
       <c r="I26" s="1">
         <v>0.669456066945606</v>
       </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
       <c r="K26">
         <v>717</v>
       </c>
@@ -2053,6 +2143,9 @@
       <c r="I27" s="1">
         <v>0.80026455026455001</v>
       </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>756</v>
       </c>
@@ -2083,6 +2176,9 @@
       <c r="I28" s="1">
         <v>0.88409371146732396</v>
       </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
       <c r="K28">
         <v>811</v>
       </c>
@@ -2113,6 +2209,9 @@
       <c r="I29" s="1">
         <v>3.17</v>
       </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
       <c r="K29">
         <v>700</v>
       </c>
@@ -2143,6 +2242,9 @@
       <c r="I30" s="1">
         <v>2.81068524970964</v>
       </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
       <c r="K30">
         <v>861</v>
       </c>
@@ -2173,6 +2275,9 @@
       <c r="I31" s="1">
         <v>0.46963582204285498</v>
       </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
       <c r="K31">
         <v>20814</v>
       </c>
@@ -2203,6 +2308,9 @@
       <c r="I32" s="1">
         <v>0.40213571235468998</v>
       </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>22194</v>
       </c>
@@ -2233,6 +2341,9 @@
       <c r="I33" s="1">
         <v>0.53857566765578602</v>
       </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>674</v>
       </c>
@@ -2263,6 +2374,9 @@
       <c r="I34" s="1">
         <v>0.41753926701570598</v>
       </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>764</v>
       </c>
@@ -2293,6 +2407,9 @@
       <c r="I35" s="1">
         <v>0.92665076885124498</v>
       </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>12161</v>
       </c>
@@ -2323,6 +2440,9 @@
       <c r="I36" s="1">
         <v>0.800057004417842</v>
       </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
       <c r="K36">
         <v>14034</v>
       </c>
@@ -2353,6 +2473,9 @@
       <c r="I37" s="1">
         <v>7.4074074074073001E-3</v>
       </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
       <c r="K37">
         <v>135</v>
       </c>
@@ -2383,6 +2506,9 @@
       <c r="I38" s="1">
         <v>7.4074074074073001E-3</v>
       </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
       <c r="K38">
         <v>135</v>
       </c>
@@ -2413,6 +2539,9 @@
       <c r="I39" s="1">
         <v>0.247723132969034</v>
       </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
       <c r="K39">
         <v>549</v>
       </c>
@@ -2443,6 +2572,9 @@
       <c r="I40" s="1">
         <v>0.23570190641247801</v>
       </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
       <c r="K40">
         <v>577</v>
       </c>
@@ -2473,6 +2605,9 @@
       <c r="I41" s="1">
         <v>0.36538461538461497</v>
       </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
       <c r="K41">
         <v>364</v>
       </c>
@@ -2503,6 +2638,9 @@
       <c r="I42" s="1">
         <v>0.375</v>
       </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>384</v>
       </c>
@@ -2533,6 +2671,9 @@
       <c r="I43" s="1">
         <v>7.0175438596491196E-2</v>
       </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
       <c r="K43">
         <v>114</v>
       </c>
@@ -2563,6 +2704,9 @@
       <c r="I44" s="1">
         <v>6.0869565217391397E-2</v>
       </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
       <c r="K44">
         <v>115</v>
       </c>
@@ -2593,6 +2737,9 @@
       <c r="I45" s="1">
         <v>0.24620060790273501</v>
       </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>658</v>
       </c>
@@ -2623,6 +2770,9 @@
       <c r="I46" s="1">
         <v>0.288753799392097</v>
       </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>658</v>
       </c>
@@ -2653,6 +2803,9 @@
       <c r="I47" s="1">
         <v>0.385599999999999</v>
       </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>1250</v>
       </c>
@@ -2683,6 +2836,9 @@
       <c r="I48" s="1">
         <v>0.361981063364894</v>
       </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>1373</v>
       </c>
@@ -2713,6 +2869,9 @@
       <c r="I49" s="1">
         <v>0.17693522906792999</v>
       </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>1266</v>
       </c>
@@ -2743,6 +2902,9 @@
       <c r="I50" s="1">
         <v>0.17693522906792999</v>
       </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>1266</v>
       </c>
@@ -2773,6 +2935,9 @@
       <c r="I51" s="1">
         <v>0.66774193548387095</v>
       </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>310</v>
       </c>
@@ -2803,6 +2968,9 @@
       <c r="I52" s="1">
         <v>0.71842650103519601</v>
       </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
       <c r="K52">
         <v>4347</v>
       </c>
@@ -2833,6 +3001,9 @@
       <c r="I53" s="1">
         <v>0.68281845112145501</v>
       </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
       <c r="K53">
         <v>4726</v>
       </c>
@@ -2863,6 +3034,9 @@
       <c r="I54" s="1">
         <v>0.58006993006993002</v>
       </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>8580</v>
       </c>
@@ -2893,6 +3067,9 @@
       <c r="I55" s="1">
         <v>0.52548179871520295</v>
       </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
       <c r="K55">
         <v>9340</v>
       </c>
@@ -2923,6 +3100,9 @@
       <c r="I56" s="1">
         <v>0.20481927710843301</v>
       </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>249</v>
       </c>
@@ -2953,6 +3133,9 @@
       <c r="I57" s="1">
         <v>0.15384615384615299</v>
       </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
       <c r="K57">
         <v>260</v>
       </c>
@@ -2983,6 +3166,9 @@
       <c r="I58" s="1">
         <v>0.56282450674974005</v>
       </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>4815</v>
       </c>
@@ -3013,6 +3199,9 @@
       <c r="I59" s="1">
         <v>0.54749804534792801</v>
       </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
       <c r="K59">
         <v>5116</v>
       </c>
@@ -3043,6 +3232,9 @@
       <c r="I60" s="1">
         <v>1.0101010101008999E-3</v>
       </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>990</v>
       </c>
@@ -3073,6 +3265,9 @@
       <c r="I61" s="1">
         <v>1.0101010101008999E-3</v>
       </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
       <c r="K61">
         <v>990</v>
       </c>
@@ -3103,6 +3298,9 @@
       <c r="I62" s="1">
         <v>3.4071550255536601E-3</v>
       </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>587</v>
       </c>
@@ -3133,6 +3331,9 @@
       <c r="I63" s="1">
         <v>3.4071550255536601E-3</v>
       </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
       <c r="K63">
         <v>587</v>
       </c>
@@ -3163,6 +3364,9 @@
       <c r="I64" s="1">
         <v>0</v>
       </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
       <c r="K64">
         <v>579</v>
       </c>
@@ -3193,6 +3397,9 @@
       <c r="I65" s="1">
         <v>0</v>
       </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
       <c r="K65">
         <v>579</v>
       </c>
@@ -3223,6 +3430,9 @@
       <c r="I66" s="1">
         <v>5.7142857142857802E-3</v>
       </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
       <c r="K66">
         <v>350</v>
       </c>
@@ -3253,6 +3463,9 @@
       <c r="I67" s="1">
         <v>5.6980056980056003E-3</v>
       </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
       <c r="K67">
         <v>351</v>
       </c>
@@ -3283,6 +3496,9 @@
       <c r="I68" s="1">
         <v>0</v>
       </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
       <c r="K68">
         <v>139</v>
       </c>
@@ -3313,6 +3529,9 @@
       <c r="I69" s="1">
         <v>0</v>
       </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
       <c r="K69">
         <v>139</v>
       </c>
@@ -3343,6 +3562,9 @@
       <c r="I70" s="1">
         <v>1.5013054830287101E-2</v>
       </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
       <c r="K70">
         <v>1532</v>
       </c>
@@ -3373,6 +3595,9 @@
       <c r="I71" s="1">
         <v>2.0221787345074901E-2</v>
       </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>1533</v>
       </c>
@@ -3403,6 +3628,9 @@
       <c r="I72" s="1">
         <v>0</v>
       </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
       <c r="K72">
         <v>254</v>
       </c>
@@ -3433,6 +3661,9 @@
       <c r="I73" s="1">
         <v>0</v>
       </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
       <c r="K73">
         <v>254</v>
       </c>
@@ -3463,6 +3694,9 @@
       <c r="I74" s="1">
         <v>0</v>
       </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
       <c r="K74">
         <v>146</v>
       </c>
@@ -3493,6 +3727,9 @@
       <c r="I75" s="1">
         <v>0</v>
       </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
       <c r="K75">
         <v>146</v>
       </c>
@@ -3523,6 +3760,9 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
       <c r="K76">
         <v>168</v>
       </c>
@@ -3553,6 +3793,9 @@
       <c r="I77" s="1">
         <v>0</v>
       </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
       <c r="K77">
         <v>168</v>
       </c>
@@ -3583,6 +3826,9 @@
       <c r="I78" s="1">
         <v>0</v>
       </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
       <c r="K78">
         <v>327</v>
       </c>
@@ -3613,6 +3859,9 @@
       <c r="I79" s="1">
         <v>0</v>
       </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
       <c r="K79">
         <v>327</v>
       </c>
@@ -3643,6 +3892,9 @@
       <c r="I80" s="1">
         <v>0.41221374045801501</v>
       </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
       <c r="K80">
         <v>524</v>
       </c>
@@ -3673,6 +3925,9 @@
       <c r="I81" s="1">
         <v>0.50551470588235303</v>
       </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
       <c r="K81">
         <v>544</v>
       </c>
@@ -3703,6 +3958,9 @@
       <c r="I82" s="1">
         <v>0</v>
       </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
       <c r="K82">
         <v>1276</v>
       </c>
@@ -3733,6 +3991,9 @@
       <c r="I83" s="1">
         <v>0</v>
       </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
       <c r="K83">
         <v>1276</v>
       </c>
@@ -3763,6 +4024,9 @@
       <c r="I84" s="1">
         <v>0.103938730853391</v>
       </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
       <c r="K84">
         <v>914</v>
       </c>
@@ -3793,6 +4057,9 @@
       <c r="I85" s="1">
         <v>8.2352941176470504E-2</v>
       </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
       <c r="K85">
         <v>935</v>
       </c>
@@ -3823,6 +4090,9 @@
       <c r="I86" s="1">
         <v>0</v>
       </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
       <c r="K86">
         <v>67803</v>
       </c>
@@ -3853,6 +4123,9 @@
       <c r="I87" s="1">
         <v>0</v>
       </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
       <c r="K87">
         <v>67803</v>
       </c>
@@ -3883,6 +4156,9 @@
       <c r="I88" s="1">
         <v>0</v>
       </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
       <c r="K88">
         <v>1019</v>
       </c>
@@ -3913,6 +4189,9 @@
       <c r="I89" s="1">
         <v>0</v>
       </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
       <c r="K89">
         <v>1019</v>
       </c>
@@ -3943,6 +4222,9 @@
       <c r="I90" s="1">
         <v>0.61016949152542299</v>
       </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
       <c r="K90">
         <v>118</v>
       </c>
@@ -3973,6 +4255,9 @@
       <c r="I91" s="1">
         <v>0.57024793388429695</v>
       </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
       <c r="K91">
         <v>121</v>
       </c>
@@ -4003,6 +4288,9 @@
       <c r="I92" s="1">
         <v>3.0721966205837698E-3</v>
       </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
       <c r="K92">
         <v>651</v>
       </c>
@@ -4033,6 +4321,9 @@
       <c r="I93" s="1">
         <v>3.0721966205837698E-3</v>
       </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
       <c r="K93">
         <v>651</v>
       </c>
@@ -4063,6 +4354,9 @@
       <c r="I94" s="1">
         <v>0</v>
       </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
       <c r="K94">
         <v>937</v>
       </c>
@@ -4093,6 +4387,9 @@
       <c r="I95" s="1">
         <v>0</v>
       </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
       <c r="K95">
         <v>937</v>
       </c>
@@ -4123,6 +4420,9 @@
       <c r="I96" s="1">
         <v>2.04081632653061E-2</v>
       </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
       <c r="K96">
         <v>98</v>
       </c>
@@ -4153,6 +4453,9 @@
       <c r="I97" s="1">
         <v>2.04081632653061E-2</v>
       </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
       <c r="K97">
         <v>98</v>
       </c>
@@ -4183,6 +4486,9 @@
       <c r="I98" s="1">
         <v>2.1126760563380202E-2</v>
       </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
       <c r="K98">
         <v>142</v>
       </c>
@@ -4213,6 +4519,9 @@
       <c r="I99" s="1">
         <v>6.9444444444444198E-3</v>
       </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
       <c r="K99">
         <v>144</v>
       </c>
@@ -4243,6 +4552,9 @@
       <c r="I100" s="1">
         <v>0</v>
       </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
       <c r="K100">
         <v>75</v>
       </c>
@@ -4273,6 +4585,9 @@
       <c r="I101" s="1">
         <v>0</v>
       </c>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
       <c r="K101">
         <v>75</v>
       </c>
@@ -4303,6 +4618,9 @@
       <c r="I102" s="1">
         <v>0</v>
       </c>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
       <c r="K102">
         <v>256</v>
       </c>
@@ -4333,6 +4651,9 @@
       <c r="I103" s="1">
         <v>0</v>
       </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
       <c r="K103">
         <v>256</v>
       </c>
@@ -4363,6 +4684,9 @@
       <c r="I104" s="1">
         <v>5.12820512820511E-3</v>
       </c>
+      <c r="J104" s="7">
+        <v>0</v>
+      </c>
       <c r="K104">
         <v>780</v>
       </c>
@@ -4393,6 +4717,9 @@
       <c r="I105" s="1">
         <v>3.8412291933418402E-3</v>
       </c>
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
       <c r="K105">
         <v>781</v>
       </c>
@@ -4423,6 +4750,9 @@
       <c r="I106" s="1">
         <v>0.152985074626865</v>
       </c>
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
       <c r="K106">
         <v>536</v>
       </c>
@@ -4453,6 +4783,9 @@
       <c r="I107" s="1">
         <v>0.14869888475836401</v>
       </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
       <c r="K107">
         <v>538</v>
       </c>
@@ -4483,6 +4816,9 @@
       <c r="I108" s="1">
         <v>0.25362318840579701</v>
       </c>
+      <c r="J108" s="7">
+        <v>0</v>
+      </c>
       <c r="K108">
         <v>138</v>
       </c>
@@ -4513,6 +4849,9 @@
       <c r="I109" s="1">
         <v>0.25362318840579701</v>
       </c>
+      <c r="J109" s="7">
+        <v>0</v>
+      </c>
       <c r="K109">
         <v>138</v>
       </c>
@@ -4543,6 +4882,9 @@
       <c r="I110" s="1">
         <v>1.78890876565285E-3</v>
       </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
       <c r="K110">
         <v>559</v>
       </c>
@@ -4573,6 +4915,9 @@
       <c r="I111" s="1">
         <v>0</v>
       </c>
+      <c r="J111" s="7">
+        <v>0</v>
+      </c>
       <c r="K111">
         <v>560</v>
       </c>
@@ -4603,6 +4948,9 @@
       <c r="I112" s="1">
         <v>2.2222222222222102E-2</v>
       </c>
+      <c r="J112" s="7">
+        <v>0</v>
+      </c>
       <c r="K112">
         <v>180</v>
       </c>
@@ -4633,6 +4981,9 @@
       <c r="I113" s="1">
         <v>2.7777777777777599E-2</v>
       </c>
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
       <c r="K113">
         <v>180</v>
       </c>
@@ -4663,6 +5014,9 @@
       <c r="I114" s="1">
         <v>0</v>
       </c>
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
       <c r="K114">
         <v>76</v>
       </c>
@@ -4693,6 +5047,9 @@
       <c r="I115" s="1">
         <v>0</v>
       </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
       <c r="K115">
         <v>76</v>
       </c>
@@ -4723,6 +5080,9 @@
       <c r="I116" s="1">
         <v>0</v>
       </c>
+      <c r="J116" s="7">
+        <v>0</v>
+      </c>
       <c r="K116">
         <v>184</v>
       </c>
@@ -4753,6 +5113,9 @@
       <c r="I117" s="1">
         <v>0</v>
       </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
       <c r="K117">
         <v>184</v>
       </c>
@@ -4783,6 +5146,9 @@
       <c r="I118" s="1">
         <v>2.3734177215188799E-3</v>
       </c>
+      <c r="J118" s="7">
+        <v>0</v>
+      </c>
       <c r="K118">
         <v>1264</v>
       </c>
@@ -4813,6 +5179,9 @@
       <c r="I119" s="1">
         <v>1.5810276679841799E-3</v>
       </c>
+      <c r="J119" s="7">
+        <v>0</v>
+      </c>
       <c r="K119">
         <v>1265</v>
       </c>
@@ -4843,6 +5212,9 @@
       <c r="I120" s="1">
         <v>0.80620645978467298</v>
       </c>
+      <c r="J120" s="7">
+        <v>0</v>
+      </c>
       <c r="K120">
         <v>1579</v>
       </c>
@@ -4873,6 +5245,9 @@
       <c r="I121" s="1">
         <v>0.67359550561797699</v>
       </c>
+      <c r="J121" s="7">
+        <v>0</v>
+      </c>
       <c r="K121">
         <v>1780</v>
       </c>
@@ -4903,6 +5278,9 @@
       <c r="I122" s="1">
         <v>0.31049250535331802</v>
       </c>
+      <c r="J122" s="7">
+        <v>0</v>
+      </c>
       <c r="K122">
         <v>467</v>
       </c>
@@ -4933,6 +5311,9 @@
       <c r="I123" s="1">
         <v>0.27950310559006197</v>
       </c>
+      <c r="J123" s="7">
+        <v>0</v>
+      </c>
       <c r="K123">
         <v>483</v>
       </c>
@@ -4963,6 +5344,9 @@
       <c r="I124" s="1">
         <v>0.82808022922636004</v>
       </c>
+      <c r="J124" s="7">
+        <v>0</v>
+      </c>
       <c r="K124">
         <v>349</v>
       </c>
@@ -4993,6 +5377,9 @@
       <c r="I125" s="1">
         <v>0.35024549918166897</v>
       </c>
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
       <c r="K125">
         <v>1222</v>
       </c>
@@ -5023,6 +5410,9 @@
       <c r="I126" s="1">
         <v>0.32917316692667697</v>
       </c>
+      <c r="J126" s="7">
+        <v>0</v>
+      </c>
       <c r="K126">
         <v>1282</v>
       </c>
@@ -5053,6 +5443,9 @@
       <c r="I127" s="1">
         <v>0</v>
       </c>
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
       <c r="K127">
         <v>712</v>
       </c>
@@ -5083,6 +5476,9 @@
       <c r="I128" s="1">
         <v>0</v>
       </c>
+      <c r="J128" s="7">
+        <v>0</v>
+      </c>
       <c r="K128">
         <v>712</v>
       </c>
@@ -5113,6 +5509,9 @@
       <c r="I129" s="1">
         <v>0.423655913978494</v>
       </c>
+      <c r="J129" s="7">
+        <v>0</v>
+      </c>
       <c r="K129">
         <v>465</v>
       </c>
@@ -5143,6 +5542,9 @@
       <c r="I130" s="1">
         <v>0.40688259109311697</v>
       </c>
+      <c r="J130" s="7">
+        <v>0</v>
+      </c>
       <c r="K130">
         <v>494</v>
       </c>
@@ -5173,6 +5575,9 @@
       <c r="I131" s="1">
         <v>0.25653255910410599</v>
       </c>
+      <c r="J131" s="7">
+        <v>0</v>
+      </c>
       <c r="K131">
         <v>4822</v>
       </c>
@@ -5203,6 +5608,9 @@
       <c r="I132" s="1">
         <v>0.218058600757424</v>
       </c>
+      <c r="J132" s="7">
+        <v>0</v>
+      </c>
       <c r="K132">
         <v>5017</v>
       </c>
@@ -5233,6 +5641,9 @@
       <c r="I133" s="1">
         <v>5.4644808743169399E-3</v>
       </c>
+      <c r="J133" s="7">
+        <v>0</v>
+      </c>
       <c r="K133">
         <v>183</v>
       </c>
@@ -5263,6 +5674,9 @@
       <c r="I134" s="1">
         <v>0</v>
       </c>
+      <c r="J134" s="7">
+        <v>0</v>
+      </c>
       <c r="K134">
         <v>184</v>
       </c>
@@ -5293,6 +5707,9 @@
       <c r="I135" s="1">
         <v>0.34971160008545099</v>
       </c>
+      <c r="J135" s="7">
+        <v>0</v>
+      </c>
       <c r="K135">
         <v>4681</v>
       </c>
@@ -5323,6 +5740,9 @@
       <c r="I136" s="1">
         <v>0.28396765923880801</v>
       </c>
+      <c r="J136" s="7">
+        <v>0</v>
+      </c>
       <c r="K136">
         <v>5071</v>
       </c>
@@ -5353,6 +5773,9 @@
       <c r="I137" s="1">
         <v>0.732494529540481</v>
       </c>
+      <c r="J137" s="7">
+        <v>0</v>
+      </c>
       <c r="K137">
         <v>1828</v>
       </c>
@@ -5383,6 +5806,9 @@
       <c r="I138" s="1">
         <v>0.67995910020449801</v>
       </c>
+      <c r="J138" s="7">
+        <v>0</v>
+      </c>
       <c r="K138">
         <v>1956</v>
       </c>
@@ -5413,6 +5839,9 @@
       <c r="I139" s="1">
         <v>1.0093408059781099</v>
       </c>
+      <c r="J139" s="7">
+        <v>0</v>
+      </c>
       <c r="K139">
         <v>3747</v>
       </c>
@@ -5443,6 +5872,9 @@
       <c r="I140" s="1">
         <v>1.02908993861756</v>
       </c>
+      <c r="J140" s="7">
+        <v>0</v>
+      </c>
       <c r="K140">
         <v>3747</v>
       </c>
@@ -5473,6 +5905,9 @@
       <c r="I141" s="1">
         <v>0.65658093797276795</v>
       </c>
+      <c r="J141" s="7">
+        <v>0</v>
+      </c>
       <c r="K141">
         <v>1322</v>
       </c>
@@ -5503,6 +5938,9 @@
       <c r="I142" s="1">
         <v>0.62068965517241304</v>
       </c>
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
       <c r="K142">
         <v>1450</v>
       </c>
@@ -5533,6 +5971,9 @@
       <c r="I143" s="1">
         <v>0.202166064981949</v>
       </c>
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
       <c r="K143">
         <v>1108</v>
       </c>
@@ -5563,6 +6004,9 @@
       <c r="I144" s="1">
         <v>0.19495213228894601</v>
       </c>
+      <c r="J144" s="7">
+        <v>0</v>
+      </c>
       <c r="K144">
         <v>1149</v>
       </c>
@@ -5593,6 +6037,9 @@
       <c r="I145" s="1">
         <v>0.40808823529411697</v>
       </c>
+      <c r="J145" s="7">
+        <v>0</v>
+      </c>
       <c r="K145">
         <v>2176</v>
       </c>
@@ -5623,6 +6070,9 @@
       <c r="I146" s="1">
         <v>0.36958405545927198</v>
       </c>
+      <c r="J146" s="7">
+        <v>0</v>
+      </c>
       <c r="K146">
         <v>2308</v>
       </c>
@@ -5653,6 +6103,9 @@
       <c r="I147" s="1">
         <v>5.9259259259259303E-2</v>
       </c>
+      <c r="J147" s="7">
+        <v>0</v>
+      </c>
       <c r="K147">
         <v>135</v>
       </c>
@@ -5683,6 +6136,9 @@
       <c r="I148" s="1">
         <v>4.31654676258992E-2</v>
       </c>
+      <c r="J148" s="7">
+        <v>0</v>
+      </c>
       <c r="K148">
         <v>139</v>
       </c>
@@ -5713,6 +6169,9 @@
       <c r="I149" s="1">
         <v>0.120343839541547</v>
       </c>
+      <c r="J149" s="7">
+        <v>0</v>
+      </c>
       <c r="K149">
         <v>349</v>
       </c>
@@ -5743,6 +6202,9 @@
       <c r="I150" s="1">
         <v>9.2178770949720601E-2</v>
       </c>
+      <c r="J150" s="7">
+        <v>0</v>
+      </c>
       <c r="K150">
         <v>358</v>
       </c>
@@ -5773,6 +6235,9 @@
       <c r="I151" s="1">
         <v>3.9735099337748297E-2</v>
       </c>
+      <c r="J151" s="7">
+        <v>0</v>
+      </c>
       <c r="K151">
         <v>151</v>
       </c>
@@ -5803,6 +6268,9 @@
       <c r="I152" s="1">
         <v>3.2894736842105303E-2</v>
       </c>
+      <c r="J152" s="7">
+        <v>0</v>
+      </c>
       <c r="K152">
         <v>152</v>
       </c>
@@ -5833,6 +6301,9 @@
       <c r="I153" s="1">
         <v>0.39556167737985898</v>
       </c>
+      <c r="J153" s="7">
+        <v>0</v>
+      </c>
       <c r="K153">
         <v>98010</v>
       </c>
@@ -5863,6 +6334,9 @@
       <c r="I154" s="1">
         <v>0.194225673656125</v>
       </c>
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
       <c r="K154">
         <v>109069</v>
       </c>
@@ -5893,6 +6367,9 @@
       <c r="I155" s="1">
         <v>0.44680851063829702</v>
       </c>
+      <c r="J155" s="7">
+        <v>0</v>
+      </c>
       <c r="K155">
         <v>188</v>
       </c>
@@ -5923,6 +6400,9 @@
       <c r="I156" s="1">
         <v>0.530612244897959</v>
       </c>
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
       <c r="K156">
         <v>196</v>
       </c>
@@ -5953,6 +6433,9 @@
       <c r="I157" s="1">
         <v>0.25826610172770698</v>
       </c>
+      <c r="J157" s="7">
+        <v>0</v>
+      </c>
       <c r="K157">
         <v>103374</v>
       </c>
@@ -5983,6 +6466,9 @@
       <c r="I158" s="1">
         <v>0.22009418277402601</v>
       </c>
+      <c r="J158" s="7">
+        <v>0</v>
+      </c>
       <c r="K158">
         <v>107663</v>
       </c>
@@ -6013,6 +6499,9 @@
       <c r="I159" s="1">
         <v>1.2160278745644599</v>
       </c>
+      <c r="J159" s="7">
+        <v>0</v>
+      </c>
       <c r="K159">
         <v>287</v>
       </c>
@@ -6043,6 +6532,9 @@
       <c r="I160" s="1">
         <v>0.22222222222222199</v>
       </c>
+      <c r="J160" s="7">
+        <v>0</v>
+      </c>
       <c r="K160">
         <v>1755</v>
       </c>
@@ -6073,6 +6565,9 @@
       <c r="I161" s="1">
         <v>0.184497816593886</v>
       </c>
+      <c r="J161" s="7">
+        <v>0</v>
+      </c>
       <c r="K161">
         <v>1832</v>
       </c>
@@ -6103,6 +6598,9 @@
       <c r="I162" s="1">
         <v>0.95967741935483797</v>
       </c>
+      <c r="J162" s="7">
+        <v>0</v>
+      </c>
       <c r="K162">
         <v>744</v>
       </c>
@@ -6133,6 +6631,9 @@
       <c r="I163" s="1">
         <v>0.85067319461444302</v>
       </c>
+      <c r="J163" s="7">
+        <v>0</v>
+      </c>
       <c r="K163">
         <v>817</v>
       </c>
@@ -6163,6 +6664,9 @@
       <c r="I164" s="1">
         <v>9.5390524967989804E-2</v>
       </c>
+      <c r="J164" s="7">
+        <v>0</v>
+      </c>
       <c r="K164">
         <v>1562</v>
       </c>
@@ -6193,6 +6697,9 @@
       <c r="I165" s="1">
         <v>8.4489281210592598E-2</v>
       </c>
+      <c r="J165" s="7">
+        <v>0</v>
+      </c>
       <c r="K165">
         <v>1586</v>
       </c>
@@ -6223,6 +6730,9 @@
       <c r="I166" s="1">
         <v>1.1877354541649201</v>
       </c>
+      <c r="J166" s="7">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>4778</v>
       </c>
@@ -6253,6 +6763,9 @@
       <c r="I167" s="1">
         <v>1.16286951609866</v>
       </c>
+      <c r="J167" s="7">
+        <v>0</v>
+      </c>
       <c r="K167">
         <v>5311</v>
       </c>
@@ -6283,6 +6796,9 @@
       <c r="I168" s="1">
         <v>0.82938578883982295</v>
       </c>
+      <c r="J168" s="7">
+        <v>0</v>
+      </c>
       <c r="K168">
         <v>2491</v>
       </c>
@@ -6313,6 +6829,9 @@
       <c r="I169" s="1">
         <v>0.76734842951059101</v>
       </c>
+      <c r="J169" s="7">
+        <v>0</v>
+      </c>
       <c r="K169">
         <v>2738</v>
       </c>
@@ -6343,6 +6862,9 @@
       <c r="I170" s="1">
         <v>0.211619834710743</v>
       </c>
+      <c r="J170" s="7">
+        <v>0</v>
+      </c>
       <c r="K170">
         <v>60500</v>
       </c>
@@ -6373,6 +6895,9 @@
       <c r="I171" s="1">
         <v>0.19632842831807501</v>
       </c>
+      <c r="J171" s="7">
+        <v>0</v>
+      </c>
       <c r="K171">
         <v>62589</v>
       </c>
@@ -6403,6 +6928,9 @@
       <c r="I172" s="1">
         <v>0.33656644034917499</v>
       </c>
+      <c r="J172" s="7">
+        <v>0</v>
+      </c>
       <c r="K172">
         <v>1031</v>
       </c>
@@ -6433,6 +6961,9 @@
       <c r="I173" s="1">
         <v>0.24777183600712999</v>
       </c>
+      <c r="J173" s="7">
+        <v>0</v>
+      </c>
       <c r="K173">
         <v>1122</v>
       </c>
@@ -6463,6 +6994,9 @@
       <c r="I174" s="1">
         <v>0.98489932885905995</v>
       </c>
+      <c r="J174" s="7">
+        <v>0</v>
+      </c>
       <c r="K174">
         <v>5364</v>
       </c>
@@ -6493,6 +7027,9 @@
       <c r="I175" s="1">
         <v>1.0106848835172499</v>
       </c>
+      <c r="J175" s="7">
+        <v>0</v>
+      </c>
       <c r="K175">
         <v>5709</v>
       </c>
@@ -6523,6 +7060,9 @@
       <c r="I176" s="1">
         <v>0.30121293800539001</v>
       </c>
+      <c r="J176" s="7">
+        <v>0</v>
+      </c>
       <c r="K176">
         <v>8904</v>
       </c>
@@ -6553,6 +7093,9 @@
       <c r="I177" s="1">
         <v>0.302551903114186</v>
       </c>
+      <c r="J177" s="7">
+        <v>0</v>
+      </c>
       <c r="K177">
         <v>9248</v>
       </c>
@@ -6583,6 +7126,9 @@
       <c r="I178" s="1">
         <v>0.203467449282141</v>
       </c>
+      <c r="J178" s="7">
+        <v>0</v>
+      </c>
       <c r="K178">
         <v>132547</v>
       </c>
@@ -6613,6 +7159,9 @@
       <c r="I179" s="1">
         <v>0.19841281548242401</v>
       </c>
+      <c r="J179" s="7">
+        <v>0</v>
+      </c>
       <c r="K179">
         <v>135586</v>
       </c>
@@ -6643,6 +7192,9 @@
       <c r="I180" s="1">
         <v>1.0169677066228699</v>
       </c>
+      <c r="J180" s="7">
+        <v>0</v>
+      </c>
       <c r="K180">
         <v>3654</v>
       </c>
@@ -6673,6 +7225,9 @@
       <c r="I181" s="1">
         <v>0.95724526369687601</v>
       </c>
+      <c r="J181" s="7">
+        <v>0</v>
+      </c>
       <c r="K181">
         <v>3906</v>
       </c>
@@ -6703,6 +7258,9 @@
       <c r="I182" s="1">
         <v>0.120343839541547</v>
       </c>
+      <c r="J182" s="7">
+        <v>0</v>
+      </c>
       <c r="K182">
         <v>349</v>
       </c>
@@ -6733,6 +7291,9 @@
       <c r="I183" s="1">
         <v>0.124645892351274</v>
       </c>
+      <c r="J183" s="7">
+        <v>0</v>
+      </c>
       <c r="K183">
         <v>353</v>
       </c>
@@ -6763,6 +7324,9 @@
       <c r="I184" s="1">
         <v>0.64803625377643503</v>
       </c>
+      <c r="J184" s="7">
+        <v>0</v>
+      </c>
       <c r="K184">
         <v>662</v>
       </c>
@@ -6793,6 +7357,9 @@
       <c r="I185" s="1">
         <v>0.76757532281205099</v>
       </c>
+      <c r="J185" s="7">
+        <v>0</v>
+      </c>
       <c r="K185">
         <v>697</v>
       </c>
@@ -6823,6 +7390,9 @@
       <c r="I186" s="1">
         <v>2.46013224426293E-2</v>
       </c>
+      <c r="J186" s="7">
+        <v>0</v>
+      </c>
       <c r="K186">
         <v>10284</v>
       </c>
@@ -6853,6 +7423,9 @@
       <c r="I187" s="1">
         <v>2.25534798180233E-2</v>
       </c>
+      <c r="J187" s="7">
+        <v>0</v>
+      </c>
       <c r="K187">
         <v>10331</v>
       </c>
@@ -6883,6 +7456,9 @@
       <c r="I188" s="1">
         <v>0.95488721804511201</v>
       </c>
+      <c r="J188" s="7">
+        <v>0</v>
+      </c>
       <c r="K188">
         <v>665</v>
       </c>
@@ -6913,6 +7489,9 @@
       <c r="I189" s="1">
         <v>0.82368775235531599</v>
       </c>
+      <c r="J189" s="7">
+        <v>0</v>
+      </c>
       <c r="K189">
         <v>743</v>
       </c>
@@ -6943,6 +7522,9 @@
       <c r="I190" s="1">
         <v>0.20848708487084799</v>
       </c>
+      <c r="J190" s="7">
+        <v>0</v>
+      </c>
       <c r="K190">
         <v>542</v>
       </c>
@@ -6973,6 +7555,9 @@
       <c r="I191" s="1">
         <v>0.19890510948905099</v>
       </c>
+      <c r="J191" s="7">
+        <v>0</v>
+      </c>
       <c r="K191">
         <v>548</v>
       </c>
@@ -7003,6 +7588,9 @@
       <c r="I192" s="1">
         <v>0.16820702402957399</v>
       </c>
+      <c r="J192" s="7">
+        <v>0</v>
+      </c>
       <c r="K192">
         <v>541</v>
       </c>
@@ -7033,6 +7621,9 @@
       <c r="I193" s="1">
         <v>0.16970802919708</v>
       </c>
+      <c r="J193" s="7">
+        <v>0</v>
+      </c>
       <c r="K193">
         <v>548</v>
       </c>
@@ -7063,6 +7654,9 @@
       <c r="I194" s="1">
         <v>2.5974025974025899E-2</v>
       </c>
+      <c r="J194" s="7">
+        <v>0</v>
+      </c>
       <c r="K194">
         <v>77</v>
       </c>
@@ -7093,6 +7687,9 @@
       <c r="I195" s="1">
         <v>1.28205128205127E-2</v>
       </c>
+      <c r="J195" s="7">
+        <v>0</v>
+      </c>
       <c r="K195">
         <v>78</v>
       </c>
@@ -7123,6 +7720,9 @@
       <c r="I196" s="1">
         <v>0.25978647686832701</v>
       </c>
+      <c r="J196" s="7">
+        <v>0</v>
+      </c>
       <c r="K196">
         <v>843</v>
       </c>
@@ -7153,6 +7753,9 @@
       <c r="I197" s="1">
         <v>0.21590909090909</v>
       </c>
+      <c r="J197" s="7">
+        <v>0</v>
+      </c>
       <c r="K197">
         <v>880</v>
       </c>
@@ -7183,6 +7786,9 @@
       <c r="I198" s="1">
         <v>0.15793176222300301</v>
       </c>
+      <c r="J198" s="7">
+        <v>0</v>
+      </c>
       <c r="K198">
         <v>2843</v>
       </c>
@@ -7213,6 +7819,9 @@
       <c r="I199" s="1">
         <v>0.113468013468013</v>
       </c>
+      <c r="J199" s="7">
+        <v>0</v>
+      </c>
       <c r="K199">
         <v>2970</v>
       </c>
@@ -7243,6 +7852,9 @@
       <c r="I200" s="1">
         <v>0.26997099920906897</v>
       </c>
+      <c r="J200" s="7">
+        <v>0</v>
+      </c>
       <c r="K200">
         <v>3793</v>
       </c>
@@ -7273,6 +7885,9 @@
       <c r="I201" s="1">
         <v>0.25839010850365801</v>
       </c>
+      <c r="J201" s="7">
+        <v>0</v>
+      </c>
       <c r="K201">
         <v>3963</v>
       </c>
@@ -7303,6 +7918,9 @@
       <c r="I202" s="1">
         <v>0.59336099585062196</v>
       </c>
+      <c r="J202" s="7">
+        <v>0</v>
+      </c>
       <c r="K202">
         <v>241</v>
       </c>
@@ -7333,6 +7951,9 @@
       <c r="I203" s="1">
         <v>0.34129692832764502</v>
       </c>
+      <c r="J203" s="7">
+        <v>0</v>
+      </c>
       <c r="K203">
         <v>293</v>
       </c>
@@ -7363,6 +7984,9 @@
       <c r="I204" s="1">
         <v>1.1749883341110501</v>
       </c>
+      <c r="J204" s="7">
+        <v>0</v>
+      </c>
       <c r="K204">
         <v>2143</v>
       </c>
@@ -7393,6 +8017,9 @@
       <c r="I205" s="1">
         <v>1.05576055760557</v>
       </c>
+      <c r="J205" s="7">
+        <v>0</v>
+      </c>
       <c r="K205">
         <v>2439</v>
       </c>
@@ -7423,6 +8050,9 @@
       <c r="I206" s="1">
         <v>0.77409326424870395</v>
       </c>
+      <c r="J206" s="7">
+        <v>0</v>
+      </c>
       <c r="K206">
         <v>965</v>
       </c>
@@ -7453,6 +8083,9 @@
       <c r="I207" s="1">
         <v>0.83143939393939403</v>
       </c>
+      <c r="J207" s="7">
+        <v>0</v>
+      </c>
       <c r="K207">
         <v>1056</v>
       </c>
@@ -7483,6 +8116,9 @@
       <c r="I208" s="1">
         <v>0.57410714285714204</v>
       </c>
+      <c r="J208" s="7">
+        <v>0</v>
+      </c>
       <c r="K208">
         <v>1120</v>
       </c>
@@ -7513,6 +8149,9 @@
       <c r="I209" s="1">
         <v>0.59459459459459396</v>
       </c>
+      <c r="J209" s="7">
+        <v>0</v>
+      </c>
       <c r="K209">
         <v>1184</v>
       </c>
@@ -7543,6 +8182,9 @@
       <c r="I210" s="1">
         <v>0.41206190501515699</v>
       </c>
+      <c r="J210" s="7">
+        <v>0</v>
+      </c>
       <c r="K210">
         <v>18803</v>
       </c>
@@ -7573,6 +8215,9 @@
       <c r="I211" s="1">
         <v>0.40035750766087802</v>
       </c>
+      <c r="J211" s="7">
+        <v>0</v>
+      </c>
       <c r="K211">
         <v>19580</v>
       </c>
@@ -7603,6 +8248,9 @@
       <c r="I212" s="1">
         <v>0.21971066907775699</v>
       </c>
+      <c r="J212" s="7">
+        <v>0</v>
+      </c>
       <c r="K212">
         <v>1106</v>
       </c>
@@ -7633,6 +8281,9 @@
       <c r="I213" s="1">
         <v>0.177586206896551</v>
       </c>
+      <c r="J213" s="7">
+        <v>0</v>
+      </c>
       <c r="K213">
         <v>1160</v>
       </c>
@@ -7663,6 +8314,9 @@
       <c r="I214" s="1">
         <v>0.49824561403508699</v>
       </c>
+      <c r="J214" s="7">
+        <v>0</v>
+      </c>
       <c r="K214">
         <v>570</v>
       </c>
@@ -7693,6 +8347,9 @@
       <c r="I215" s="1">
         <v>0.51585976627712804</v>
       </c>
+      <c r="J215" s="7">
+        <v>0</v>
+      </c>
       <c r="K215">
         <v>599</v>
       </c>
@@ -7723,6 +8380,9 @@
       <c r="I216" s="1">
         <v>0.12583120204603501</v>
       </c>
+      <c r="J216" s="7">
+        <v>0</v>
+      </c>
       <c r="K216">
         <v>5865</v>
       </c>
@@ -7753,6 +8413,9 @@
       <c r="I217" s="1">
         <v>8.8235294117646898E-2</v>
       </c>
+      <c r="J217" s="7">
+        <v>0</v>
+      </c>
       <c r="K217">
         <v>6086</v>
       </c>
@@ -7783,6 +8446,9 @@
       <c r="I218" s="1">
         <v>1.1963746223564899</v>
       </c>
+      <c r="J218" s="7">
+        <v>0</v>
+      </c>
       <c r="K218">
         <v>331</v>
       </c>
@@ -7813,6 +8479,9 @@
       <c r="I219" s="1">
         <v>1.19137466307277</v>
       </c>
+      <c r="J219" s="7">
+        <v>0</v>
+      </c>
       <c r="K219">
         <v>371</v>
       </c>
@@ -7843,6 +8512,9 @@
       <c r="I220" s="1">
         <v>0.459373340414232</v>
       </c>
+      <c r="J220" s="7">
+        <v>0</v>
+      </c>
       <c r="K220">
         <v>3766</v>
       </c>
@@ -7873,6 +8545,9 @@
       <c r="I221" s="1">
         <v>0.44659231722428699</v>
       </c>
+      <c r="J221" s="7">
+        <v>0</v>
+      </c>
       <c r="K221">
         <v>4035</v>
       </c>
@@ -7903,6 +8578,9 @@
       <c r="I222" s="1">
         <v>0.71026156941649898</v>
       </c>
+      <c r="J222" s="7">
+        <v>0</v>
+      </c>
       <c r="K222">
         <v>1988</v>
       </c>
@@ -7933,6 +8611,9 @@
       <c r="I223" s="1">
         <v>0.65333333333333299</v>
       </c>
+      <c r="J223" s="7">
+        <v>0</v>
+      </c>
       <c r="K223">
         <v>2100</v>
       </c>
@@ -7963,6 +8644,9 @@
       <c r="I224" s="1">
         <v>2.8203826630222499</v>
       </c>
+      <c r="J224" s="7">
+        <v>0</v>
+      </c>
       <c r="K224">
         <v>2561</v>
       </c>
@@ -7993,6 +8677,9 @@
       <c r="I225" s="1">
         <v>2.4878131347325598</v>
       </c>
+      <c r="J225" s="7">
+        <v>0</v>
+      </c>
       <c r="K225">
         <v>2954</v>
       </c>
@@ -8023,6 +8710,9 @@
       <c r="I226" s="1">
         <v>0.347540983606557</v>
       </c>
+      <c r="J226" s="7">
+        <v>0</v>
+      </c>
       <c r="K226">
         <v>3660</v>
       </c>
@@ -8053,6 +8743,9 @@
       <c r="I227" s="1">
         <v>0.38761955366631201</v>
       </c>
+      <c r="J227" s="7">
+        <v>0</v>
+      </c>
       <c r="K227">
         <v>3764</v>
       </c>
@@ -8083,6 +8776,9 @@
       <c r="I228" s="1">
         <v>0.57126671198731005</v>
       </c>
+      <c r="J228" s="7">
+        <v>0</v>
+      </c>
       <c r="K228">
         <v>4413</v>
       </c>
@@ -8113,6 +8809,9 @@
       <c r="I229" s="1">
         <v>0.48556105610561001</v>
       </c>
+      <c r="J229" s="7">
+        <v>0</v>
+      </c>
       <c r="K229">
         <v>4848</v>
       </c>
@@ -8143,6 +8842,9 @@
       <c r="I230" s="1">
         <v>0.44364876385336699</v>
       </c>
+      <c r="J230" s="7">
+        <v>0</v>
+      </c>
       <c r="K230">
         <v>11730</v>
       </c>
@@ -8173,6 +8875,9 @@
       <c r="I231" s="1">
         <v>0.40234688956759301</v>
       </c>
+      <c r="J231" s="7">
+        <v>0</v>
+      </c>
       <c r="K231">
         <v>12442</v>
       </c>
@@ -8203,6 +8908,9 @@
       <c r="I232" s="1">
         <v>0.76364628820960601</v>
       </c>
+      <c r="J232" s="7">
+        <v>0</v>
+      </c>
       <c r="K232">
         <v>1832</v>
       </c>
@@ -8233,6 +8941,9 @@
       <c r="I233" s="1">
         <v>0.66650461837627595</v>
       </c>
+      <c r="J233" s="7">
+        <v>0</v>
+      </c>
       <c r="K233">
         <v>2057</v>
       </c>
@@ -8263,6 +8974,9 @@
       <c r="I234" s="1">
         <v>0.63495193492728597</v>
       </c>
+      <c r="J234" s="7">
+        <v>0</v>
+      </c>
       <c r="K234">
         <v>4057</v>
       </c>
@@ -8293,6 +9007,9 @@
       <c r="I235" s="1">
         <v>0.55739189495132402</v>
       </c>
+      <c r="J235" s="7">
+        <v>0</v>
+      </c>
       <c r="K235">
         <v>4417</v>
       </c>
@@ -8323,6 +9040,9 @@
       <c r="I236" s="1">
         <v>1.8894844710704699</v>
       </c>
+      <c r="J236" s="7">
+        <v>0</v>
+      </c>
       <c r="K236">
         <v>6343</v>
       </c>
@@ -8353,6 +9073,9 @@
       <c r="I237" s="1">
         <v>1.8147258903561401</v>
       </c>
+      <c r="J237" s="7">
+        <v>0</v>
+      </c>
       <c r="K237">
         <v>7497</v>
       </c>
@@ -8383,6 +9106,9 @@
       <c r="I238" s="1">
         <v>0.33834586466165401</v>
       </c>
+      <c r="J238" s="7">
+        <v>0</v>
+      </c>
       <c r="K238">
         <v>266</v>
       </c>
@@ -8413,6 +9139,9 @@
       <c r="I239" s="1">
         <v>0.329749103942652</v>
       </c>
+      <c r="J239" s="7">
+        <v>0</v>
+      </c>
       <c r="K239">
         <v>279</v>
       </c>
@@ -8443,6 +9172,9 @@
       <c r="I240" s="1">
         <v>0.89404990403071005</v>
       </c>
+      <c r="J240" s="7">
+        <v>0</v>
+      </c>
       <c r="K240">
         <v>2605</v>
       </c>
@@ -8473,6 +9205,9 @@
       <c r="I241" s="1">
         <v>0.92093023255813899</v>
       </c>
+      <c r="J241" s="7">
+        <v>0</v>
+      </c>
       <c r="K241">
         <v>2795</v>
       </c>
@@ -8503,6 +9238,9 @@
       <c r="I242" s="1">
         <v>0.287610619469026</v>
       </c>
+      <c r="J242" s="7">
+        <v>0</v>
+      </c>
       <c r="K242">
         <v>226</v>
       </c>
@@ -8533,6 +9271,9 @@
       <c r="I243" s="1">
         <v>0.26160337552742602</v>
       </c>
+      <c r="J243" s="7">
+        <v>0</v>
+      </c>
       <c r="K243">
         <v>237</v>
       </c>
@@ -8563,6 +9304,9 @@
       <c r="I244" s="1">
         <v>0.84272727272727199</v>
       </c>
+      <c r="J244" s="7">
+        <v>0</v>
+      </c>
       <c r="K244">
         <v>2200</v>
       </c>
@@ -8593,6 +9337,9 @@
       <c r="I245" s="1">
         <v>0.82468328565590499</v>
       </c>
+      <c r="J245" s="7">
+        <v>0</v>
+      </c>
       <c r="K245">
         <v>2447</v>
       </c>
@@ -8623,6 +9370,9 @@
       <c r="I246" s="1">
         <v>1.12218181818181</v>
       </c>
+      <c r="J246" s="7">
+        <v>0</v>
+      </c>
       <c r="K246">
         <v>1375</v>
       </c>
@@ -8653,6 +9403,9 @@
       <c r="I247" s="1">
         <v>1.19581363943281</v>
       </c>
+      <c r="J247" s="7">
+        <v>0</v>
+      </c>
       <c r="K247">
         <v>1481</v>
       </c>
@@ -8683,6 +9436,9 @@
       <c r="I248" s="1">
         <v>0.440074906367041</v>
       </c>
+      <c r="J248" s="7">
+        <v>0</v>
+      </c>
       <c r="K248">
         <v>534</v>
       </c>
@@ -8713,6 +9469,9 @@
       <c r="I249" s="1">
         <v>0.43717728055077398</v>
       </c>
+      <c r="J249" s="7">
+        <v>0</v>
+      </c>
       <c r="K249">
         <v>581</v>
       </c>
@@ -8743,6 +9502,9 @@
       <c r="I250" s="1">
         <v>0.187071498530852</v>
       </c>
+      <c r="J250" s="7">
+        <v>0</v>
+      </c>
       <c r="K250">
         <v>1021</v>
       </c>
@@ -8773,6 +9535,9 @@
       <c r="I251" s="1">
         <v>0.152030217186024</v>
       </c>
+      <c r="J251" s="7">
+        <v>0</v>
+      </c>
       <c r="K251">
         <v>1059</v>
       </c>
@@ -8803,6 +9568,9 @@
       <c r="I252" s="1">
         <v>0.34756820877817302</v>
       </c>
+      <c r="J252" s="7">
+        <v>0</v>
+      </c>
       <c r="K252">
         <v>1686</v>
       </c>
@@ -8833,6 +9601,9 @@
       <c r="I253" s="1">
         <v>0.38078902229845601</v>
       </c>
+      <c r="J253" s="7">
+        <v>0</v>
+      </c>
       <c r="K253">
         <v>1749</v>
       </c>
@@ -8863,6 +9634,9 @@
       <c r="I254" s="1">
         <v>0.24455094201572999</v>
       </c>
+      <c r="J254" s="7">
+        <v>0</v>
+      </c>
       <c r="K254">
         <v>136675</v>
       </c>
@@ -8893,6 +9667,9 @@
       <c r="I255" s="1">
         <v>0.215573966831522</v>
       </c>
+      <c r="J255" s="7">
+        <v>0</v>
+      </c>
       <c r="K255">
         <v>141942</v>
       </c>
@@ -8923,6 +9700,9 @@
       <c r="I256" s="1">
         <v>0.21910112359550499</v>
       </c>
+      <c r="J256" s="7">
+        <v>0</v>
+      </c>
       <c r="K256">
         <v>178</v>
       </c>
@@ -8953,6 +9733,9 @@
       <c r="I257" s="1">
         <v>0.25945945945945897</v>
       </c>
+      <c r="J257" s="7">
+        <v>0</v>
+      </c>
       <c r="K257">
         <v>185</v>
       </c>
@@ -8983,6 +9766,9 @@
       <c r="I258" s="1">
         <v>0.51928948098806504</v>
       </c>
+      <c r="J258" s="7">
+        <v>0</v>
+      </c>
       <c r="K258">
         <v>7206</v>
       </c>
@@ -9013,6 +9799,9 @@
       <c r="I259" s="1">
         <v>0.48771610555049999</v>
       </c>
+      <c r="J259" s="7">
+        <v>0</v>
+      </c>
       <c r="K259">
         <v>7693</v>
       </c>
@@ -9043,6 +9832,9 @@
       <c r="I260" s="1">
         <v>0.18612919610287601</v>
       </c>
+      <c r="J260" s="7">
+        <v>0</v>
+      </c>
       <c r="K260">
         <v>21657</v>
       </c>
@@ -9073,6 +9865,9 @@
       <c r="I261" s="1">
         <v>0.16550577450231399</v>
       </c>
+      <c r="J261" s="7">
+        <v>0</v>
+      </c>
       <c r="K261">
         <v>22253</v>
       </c>
@@ -9103,6 +9898,9 @@
       <c r="I262" s="1">
         <v>5.3619302949061698E-2</v>
       </c>
+      <c r="J262" s="7">
+        <v>0</v>
+      </c>
       <c r="K262">
         <v>373</v>
       </c>
@@ -9133,6 +9931,9 @@
       <c r="I263" s="1">
         <v>4.5212765957446797E-2</v>
       </c>
+      <c r="J263" s="7">
+        <v>0</v>
+      </c>
       <c r="K263">
         <v>376</v>
       </c>
@@ -9163,6 +9964,9 @@
       <c r="I264" s="1">
         <v>0.161711711711711</v>
       </c>
+      <c r="J264" s="7">
+        <v>0</v>
+      </c>
       <c r="K264">
         <v>2220</v>
       </c>
@@ -9193,6 +9997,9 @@
       <c r="I265" s="1">
         <v>0.15721877767936199</v>
       </c>
+      <c r="J265" s="7">
+        <v>0</v>
+      </c>
       <c r="K265">
         <v>2258</v>
       </c>
@@ -9223,6 +10030,9 @@
       <c r="I266" s="1">
         <v>7.61904761904761E-2</v>
       </c>
+      <c r="J266" s="7">
+        <v>0</v>
+      </c>
       <c r="K266">
         <v>105</v>
       </c>
@@ -9253,6 +10063,9 @@
       <c r="I267" s="1">
         <v>5.6074766355140103E-2</v>
       </c>
+      <c r="J267" s="7">
+        <v>0</v>
+      </c>
       <c r="K267">
         <v>107</v>
       </c>
@@ -9283,6 +10096,9 @@
       <c r="I268" s="1">
         <v>0.21812080536912701</v>
       </c>
+      <c r="J268" s="7">
+        <v>0</v>
+      </c>
       <c r="K268">
         <v>596</v>
       </c>
@@ -9313,6 +10129,9 @@
       <c r="I269" s="1">
         <v>0.199036918138041</v>
       </c>
+      <c r="J269" s="7">
+        <v>0</v>
+      </c>
       <c r="K269">
         <v>623</v>
       </c>
@@ -9343,6 +10162,9 @@
       <c r="I270" s="1">
         <v>1.0203527815468101</v>
       </c>
+      <c r="J270" s="7">
+        <v>0</v>
+      </c>
       <c r="K270">
         <v>30217</v>
       </c>
@@ -9373,6 +10195,9 @@
       <c r="I271" s="1">
         <v>0.908909671934093</v>
       </c>
+      <c r="J271" s="7">
+        <v>0</v>
+      </c>
       <c r="K271">
         <v>34109</v>
       </c>
@@ -9403,6 +10228,9 @@
       <c r="I272" s="1">
         <v>1.3517816527672399</v>
       </c>
+      <c r="J272" s="7">
+        <v>0</v>
+      </c>
       <c r="K272">
         <v>1319</v>
       </c>
@@ -9433,6 +10261,9 @@
       <c r="I273" s="1">
         <v>1.3064295485636099</v>
       </c>
+      <c r="J273" s="7">
+        <v>0</v>
+      </c>
       <c r="K273">
         <v>1462</v>
       </c>
@@ -9463,6 +10294,9 @@
       <c r="I274" s="1">
         <v>1.1777456647398801</v>
       </c>
+      <c r="J274" s="7">
+        <v>0</v>
+      </c>
       <c r="K274">
         <v>2076</v>
       </c>
@@ -9493,6 +10327,9 @@
       <c r="I275" s="1">
         <v>1.09114031369224</v>
       </c>
+      <c r="J275" s="7">
+        <v>0</v>
+      </c>
       <c r="K275">
         <v>2359</v>
       </c>
@@ -9523,6 +10360,9 @@
       <c r="I276" s="1">
         <v>0.71719500852580897</v>
       </c>
+      <c r="J276" s="7">
+        <v>0</v>
+      </c>
       <c r="K276">
         <v>51608</v>
       </c>
@@ -9553,6 +10393,9 @@
       <c r="I277" s="1">
         <v>0.69930487672423103</v>
       </c>
+      <c r="J277" s="7">
+        <v>0</v>
+      </c>
       <c r="K277">
         <v>55242</v>
       </c>
@@ -9583,6 +10426,9 @@
       <c r="I278" s="1">
         <v>0.182266009852216</v>
       </c>
+      <c r="J278" s="7">
+        <v>0</v>
+      </c>
       <c r="K278">
         <v>406</v>
       </c>
@@ -9613,6 +10459,9 @@
       <c r="I279" s="1">
         <v>0.139150943396226</v>
       </c>
+      <c r="J279" s="7">
+        <v>0</v>
+      </c>
       <c r="K279">
         <v>424</v>
       </c>
@@ -9643,6 +10492,9 @@
       <c r="I280" s="1">
         <v>0.58350492408643195</v>
       </c>
+      <c r="J280" s="7">
+        <v>0</v>
+      </c>
       <c r="K280">
         <v>366667</v>
       </c>
@@ -9673,6 +10525,9 @@
       <c r="I281" s="1">
         <v>0.53365655199218598</v>
       </c>
+      <c r="J281" s="7">
+        <v>0</v>
+      </c>
       <c r="K281">
         <v>396223</v>
       </c>
@@ -9703,6 +10558,9 @@
       <c r="I282" s="1">
         <v>1.2403846153846101</v>
       </c>
+      <c r="J282" s="7">
+        <v>0</v>
+      </c>
       <c r="K282">
         <v>520</v>
       </c>
@@ -9733,6 +10591,9 @@
       <c r="I283" s="1">
         <v>0.145454545454545</v>
       </c>
+      <c r="J283" s="7">
+        <v>0</v>
+      </c>
       <c r="K283">
         <v>165</v>
       </c>
@@ -9763,6 +10624,9 @@
       <c r="I284" s="1">
         <v>0.145454545454545</v>
       </c>
+      <c r="J284" s="7">
+        <v>0</v>
+      </c>
       <c r="K284">
         <v>165</v>
       </c>
@@ -9793,6 +10657,9 @@
       <c r="I285" s="1">
         <v>8.1632653061224497E-2</v>
       </c>
+      <c r="J285" s="7">
+        <v>0</v>
+      </c>
       <c r="K285">
         <v>245</v>
       </c>
@@ -9823,6 +10690,9 @@
       <c r="I286" s="1">
         <v>6.8273092369477803E-2</v>
       </c>
+      <c r="J286" s="7">
+        <v>0</v>
+      </c>
       <c r="K286">
         <v>249</v>
       </c>
@@ -9853,6 +10723,9 @@
       <c r="I287" s="1">
         <v>0.21259842519684999</v>
       </c>
+      <c r="J287" s="7">
+        <v>0</v>
+      </c>
       <c r="K287">
         <v>254</v>
       </c>
@@ -9883,6 +10756,9 @@
       <c r="I288" s="1">
         <v>0.18007662835249</v>
       </c>
+      <c r="J288" s="7">
+        <v>0</v>
+      </c>
       <c r="K288">
         <v>261</v>
       </c>
@@ -9895,15 +10771,23 @@
         <v>307.99999999999989</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H289" s="3">
         <f>SUMXMY2(H2:H288, I2:I288)/287</f>
         <v>0.11483933880881185</v>
       </c>
+      <c r="I289" s="3">
+        <f>SUMXMY2(J2:J288, I2:I288)/287</f>
+        <v>0.36636155345373261</v>
+      </c>
+      <c r="J289" s="8">
+        <f>I289/H289</f>
+        <v>3.1902095331954397</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:I56 H58:I288 I57 H290:I1048576 I289">
+  <conditionalFormatting sqref="H1:I56 H58:I288 I57 H290:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9935,7 +10819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:I56 H58:I288 I57 H290:I1048576 I289</xm:sqref>
+          <xm:sqref>H1:I56 H58:I288 I57 H290:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
